--- a/Test_Suite/rd_edit.xlsx
+++ b/Test_Suite/rd_edit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\Test_Suite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD99EA7E-B76A-4E0B-867F-C280259015BF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A2F8D9-9FE7-44D3-94AB-69B0483E8950}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>CheckPoint</t>
   </si>
@@ -37,25 +37,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t>CommonUtils.Reboot()</t>
-  </si>
-  <si>
-    <t>CommonUtils.SwitchToAdmin()</t>
-  </si>
-  <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>CommonUtils.SwitchToUser()</t>
-  </si>
-  <si>
-    <t>Shell_Application().create('standardCitrix')</t>
-  </si>
-  <si>
-    <t>Shell_Application().edit('editCitrix', 'standardCitrix')</t>
-  </si>
-  <si>
-    <t>Shell_Application().check('editCitrix')</t>
   </si>
 </sst>
 </file>
@@ -382,7 +364,7 @@
   <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -412,32 +394,22 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B2"/>
       <c r="D2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -445,23 +417,15 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
